--- a/QE Report.xlsx
+++ b/QE Report.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,24 +407,21 @@
         <v>QE ID</v>
       </c>
       <c r="B1" t="str">
-        <v>namaSTO</v>
+        <v>Nama STO</v>
       </c>
       <c r="C1" t="str">
-        <v>segmen</v>
+        <v xml:space="preserve">Waktu </v>
       </c>
       <c r="D1" t="str">
-        <v>namaAlpro</v>
+        <v xml:space="preserve">Segmen </v>
       </c>
       <c r="E1" t="str">
-        <v>jenisQE</v>
+        <v>Nama Alpro</v>
       </c>
       <c r="F1" t="str">
-        <v>status</v>
+        <v>Jenis QE</v>
       </c>
       <c r="G1" t="str">
-        <v>keterangan</v>
-      </c>
-      <c r="H1" t="str">
         <v>Jumlah Biaya</v>
       </c>
     </row>
@@ -436,21 +433,18 @@
         <v>JHR</v>
       </c>
       <c r="C2" t="str">
+        <v>Fri Feb 24 2023 13:59:35 GMT+0700 (Western Indonesia Time)</v>
+      </c>
+      <c r="D2" t="str">
         <v>Kabel Feeder</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>FE-01</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>Perapihan ODC</v>
       </c>
-      <c r="F2" t="str">
-        <v>CLOSED</v>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>44444</v>
       </c>
     </row>
@@ -462,27 +456,24 @@
         <v>JHR</v>
       </c>
       <c r="C3" t="str">
+        <v>Wed Feb 22 2023 15:42:58 GMT+0700 (Western Indonesia Time)</v>
+      </c>
+      <c r="D3" t="str">
         <v>Kabel Feeder</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>FE-01</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>Perapihan ODC</v>
       </c>
-      <c r="F3" t="str">
-        <v>CLOSED</v>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3">
+      <c r="G3">
         <v>44444</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>